--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_3_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_3_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.94772895416854, 50.08379162438115]</t>
+          <t>[49.94764579283308, 50.08387478571661]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.98741242823131, 50.08317491357249]</t>
+          <t>[49.987506072905525, 50.083081268898276]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.94770753698828, 50.11087382168032]</t>
+          <t>[49.94607144201058, 50.11250991665803]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.01162912765454, 50.10312195705287]</t>
+          <t>[50.01161020344684, 50.103140881260565]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_3_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_3_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.94764579283308, 50.08387478571661]</t>
+          <t>[49.94769819425478, 50.08382238429491]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.987506072905525, 50.083081268898276]</t>
+          <t>[49.98746897697917, 50.08311836482463]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.94607144201058, 50.11250991665803]</t>
+          <t>[49.94501993657889, 50.11356142208972]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.01161020344684, 50.103140881260565]</t>
+          <t>[50.01155940885465, 50.103191675852756]</t>
         </is>
       </c>
       <c r="U3" t="n">
